--- a/templates/survey-metadata-template.xlsx
+++ b/templates/survey-metadata-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahndi.minah/Desktop/gitcode/dev/frog_survey/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahnd\Desktop\gitcode\quant-survey\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3263518-1AD7-2445-8FAA-1D1DCEA3B42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA88598-F06F-4AD8-BF90-6A9BC3AECDCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8400" yWindow="-28340" windowWidth="51200" windowHeight="28340" xr2:uid="{C0BB3EEB-BB89-BE4A-AA61-584997E86E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0BB3EEB-BB89-BE4A-AA61-584997E86E67}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="7" r:id="rId1"/>
@@ -144,8 +144,88 @@
     <t>categories</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For categorical questions, enter the name of the category list here. The values for each category will be pulled from the </t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>Only required for categorical questions. Enter TRUE if the category values are ordered and FALSE otherwise.</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>Contains a list of all the attributes in the survey, and references to their metadata, e.g. categories, in other sheets.</t>
+  </si>
+  <si>
+    <t>Name for the question. This will be the name of the property which accesses the question on the survey (or question group), so should be a valid Python variable.</t>
+  </si>
+  <si>
+    <t>The text of the attribute. This is typically the exact wording of the attribute question and is used for labelling axes in charts etc.</t>
+  </si>
+  <si>
+    <t>Optional regular expression to use to match the attribute column in the survey raw data file. Also can use for example if you want to abbreviate or otherwise change the attribute text.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the type of attribute here e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MultiCategoryAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Can also abbreviate e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MultiCategory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Only required for categorical attributes. Enter TRUE if the category values are ordered and FALSE otherwise.</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>Contains a list of every category, each with a list of its possible values. N.B. this is required even for unordered questions and attributes so that even if no respondent gives a particular response, it is still part of the question.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name for a list of categorical values. These names are referenced in the </t>
     </r>
     <r>
       <rPr>
@@ -156,17 +236,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column of the </t>
+      <t>categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> columns of the </t>
     </r>
     <r>
       <rPr>
@@ -178,132 +258,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet where the value in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column matches this name.</t>
-    </r>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>Only required for categorical questions. Enter TRUE if the category values are ordered and FALSE otherwise.</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>Contains a list of all the attributes in the survey, and references to their metadata, e.g. categories, in other sheets.</t>
-  </si>
-  <si>
-    <t>Name for the question. This will be the name of the property which accesses the question on the survey (or question group), so should be a valid Python variable.</t>
-  </si>
-  <si>
-    <t>The text of the attribute. This is typically the exact wording of the attribute question and is used for labelling axes in charts etc.</t>
-  </si>
-  <si>
-    <t>Optional regular expression to use to match the attribute column in the survey raw data file. Also can use for example if you want to abbreviate or otherwise change the attribute text.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter the type of attribute here e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MultiCategoryAttribute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Can also abbreviate e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MultiCategory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For categorical attributes, enter the name of the category list here. The values for each category will be pulled from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column of the </t>
+      <t>questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -315,17 +280,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet where the value in the </t>
+      <t>attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheets.</t>
+    </r>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Contains the values for each category set. The order listed will be the plot order of the corresponding categorical question(s) or attribute(s), whether or not the categorical question or attribute is ordered.</t>
+  </si>
+  <si>
+    <t>loop_expressions</t>
+  </si>
+  <si>
+    <t>Contains a list of regular expressions for each combination of loop variables in the questions sheet. There is an expression used to match all the questions in a loop, as well as an expression builder used to create  appropriately named questions and groups from loop values. (loop values are typically stored in the raw data file as numbers whereas loop variable values are names corresponding to the meaning of each loop instance).</t>
+  </si>
+  <si>
+    <t>loop_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of the loop. This should be one or more loop_variables, separated by a new line. Each </t>
     </r>
     <r>
       <rPr>
@@ -336,34 +321,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column matches this name.</t>
-    </r>
-  </si>
-  <si>
-    <t>Only required for categorical attributes. Enter TRUE if the category values are ordered and FALSE otherwise.</t>
-  </si>
-  <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>Contains a list of every category, each with a list of its possible values. N.B. this is required even for unordered questions and attributes so that even if no respondent gives a particular response, it is still part of the question.</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name for a list of categorical values. These names are referenced in the </t>
+      <t>loop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should correspond to one or more entries in the </t>
     </r>
     <r>
       <rPr>
@@ -374,17 +342,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> columns of the </t>
+      <t>loop_variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column of the </t>
     </r>
     <r>
       <rPr>
@@ -406,7 +374,217 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and </t>
+      <t xml:space="preserve"> sheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A regular expression which will be used to match questions which are part of the associated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. There can be multiple expressions for each </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as long as each question is matched only once. The number of parenthesis groups in the expression should be the same as the number of loop_variables in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and in the same order, since these will be extracted as the value of each loop_variable for matching questions.</t>
+    </r>
+  </si>
+  <si>
+    <t>expression_builder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A string which can be used to build a regular expression that will match the question associated with the values of the variables in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Generally this should be the same as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but with each </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(group)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replaced by the associated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{variable_name}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>loop_mappings</t>
+  </si>
+  <si>
+    <t>Used to map from loop values (typically numbers) in the raw data file to value names so that the question and group names are more meaningful.</t>
+  </si>
+  <si>
+    <t>loop_variable</t>
+  </si>
+  <si>
+    <t>The name of the loop variable to map.</t>
+  </si>
+  <si>
+    <t>map_from</t>
+  </si>
+  <si>
+    <t>The value to map from, typically a number.</t>
+  </si>
+  <si>
+    <t>map_to</t>
+  </si>
+  <si>
+    <t>The value to map to, typically a variable value.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For categorical questions, enter the name of the category list here. The values for each category will be pulled from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column of the </t>
     </r>
     <r>
       <rPr>
@@ -418,37 +596,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>attributes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheets.</t>
-    </r>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Contains the values for each category set. The order listed will be the plot order of the corresponding categorical question(s) or attribute(s), whether or not the categorical question or attribute is ordered.</t>
-  </si>
-  <si>
-    <t>loop_expressions</t>
-  </si>
-  <si>
-    <t>Contains a list of regular expressions for each combination of loop variables in the questions sheet. There is an expression used to match all the questions in a loop, as well as an expression builder used to create  appropriately named questions and groups from loop values. (loop values are typically stored in the raw data file as numbers whereas loop variable values are names corresponding to the meaning of each loop instance).</t>
-  </si>
-  <si>
-    <t>loop_name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The name of the loop. This should be one or more loop_variables, separated by a new line. Each </t>
+      <t>orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet where the value in the </t>
     </r>
     <r>
       <rPr>
@@ -459,17 +617,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>loop_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should correspond to one or more entries in the </t>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column matches this name.
+Category names must not overlap with the name of any question or attribute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For categorical attributes, enter the name of the category list here. The values for each category will be pulled from the </t>
     </r>
     <r>
       <rPr>
@@ -480,7 +644,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>loop_variables</t>
+      <t>value</t>
     </r>
     <r>
       <rPr>
@@ -502,22 +666,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sheet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A regular expression which will be used to match questions which are part of the associated </t>
+      <t>orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sheet where the value in the </t>
     </r>
     <r>
       <rPr>
@@ -528,176 +687,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>loop_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. There can be multiple expressions for each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loop_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, as long as each question is matched only once. The number of parenthesis groups in the expression should be the same as the number of loop_variables in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loop_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and in the same order, since these will be extracted as the value of each loop_variable for matching questions.</t>
-    </r>
-  </si>
-  <si>
-    <t>expression_builder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A string which can be used to build a regular expression that will match the question associated with the values of the variables in a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loop_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Generally this should be the same as the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>expression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, but with each </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(group)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replaced by the associated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{variable_name}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>loop_mappings</t>
-  </si>
-  <si>
-    <t>Used to map from loop values (typically numbers) in the raw data file to value names so that the question and group names are more meaningful.</t>
-  </si>
-  <si>
-    <t>loop_variable</t>
-  </si>
-  <si>
-    <t>The name of the loop variable to map.</t>
-  </si>
-  <si>
-    <t>map_from</t>
-  </si>
-  <si>
-    <t>The value to map from, typically a number.</t>
-  </si>
-  <si>
-    <t>map_to</t>
-  </si>
-  <si>
-    <t>The value to map to, typically a variable value.</t>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column matches this name.
+Category names must not overlap with the name of any question or attribute.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -941,6 +943,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -955,21 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,21 +1299,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C416CB8-702A-314E-9161-CCC4F49BE6AC}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="10" hidden="1"/>
+    <col min="5" max="16384" width="10.875" style="10" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1325,11 +1327,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -1339,9 +1341,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
@@ -1349,9 +1351,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
@@ -1359,9 +1361,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
@@ -1369,9 +1371,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="30" t="s">
         <v>14</v>
       </c>
@@ -1379,195 +1381,195 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="41"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="41"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="41"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="B15" s="37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="C15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="D15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="32" t="s">
+    </row>
+    <row r="16" spans="1:4" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="32" t="s">
+    <row r="17" spans="1:4" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="B17" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="C17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="D17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="43"/>
+    </row>
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="33" t="s">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="B20" s="39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="D20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="34" t="s">
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D21" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="34" t="s">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1578,26 +1580,26 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="45.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="45.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="45.33203125" style="13"/>
+    <col min="8" max="16384" width="45.375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1639,17 +1641,17 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1666,58 +1668,58 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
@@ -1739,1007 +1741,1007 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="32.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261"/>
     </row>
   </sheetData>
@@ -2761,33 +2763,33 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="C4" s="10"/>
     </row>
@@ -2809,26 +2811,26 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.83203125" style="10"/>
+    <col min="4" max="16384" width="15.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{D4B68E45-EF3F-0A42-9068-063F7FE5AC8C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3053,18 +3055,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3087,14 +3089,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B064398-A2C5-4EDD-938E-E1124410CBBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E143621C-B52A-45E4-96E2-199122A6FBD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3109,4 +3103,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B064398-A2C5-4EDD-938E-E1124410CBBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/survey-metadata-template.xlsx
+++ b/templates/survey-metadata-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahnd\Desktop\gitcode\quant-survey\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahndi.minah/Desktop/gitcode/dev/quant-survey/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA88598-F06F-4AD8-BF90-6A9BC3AECDCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82207700-A697-014B-B560-DEE850158A60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0BB3EEB-BB89-BE4A-AA61-584997E86E67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{C0BB3EEB-BB89-BE4A-AA61-584997E86E67}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="7" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>ordered</t>
   </si>
   <si>
-    <t>Only required for categorical questions. Enter TRUE if the category values are ordered and FALSE otherwise.</t>
-  </si>
-  <si>
     <t>attributes</t>
   </si>
   <si>
@@ -700,6 +697,10 @@
       <t xml:space="preserve"> column matches this name.
 Category names must not overlap with the name of any question or attribute.</t>
     </r>
+  </si>
+  <si>
+    <t>Only required for categorical questions. Enter TRUE if the category values are ordered and FALSE otherwise.
+Not required for LikertQuestions, which are ordered by default.</t>
   </si>
 </sst>
 </file>
@@ -943,6 +944,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -957,21 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,23 +1298,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C416CB8-702A-314E-9161-CCC4F49BE6AC}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="10" hidden="1"/>
+    <col min="5" max="16384" width="10.83203125" style="10" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1327,11 +1328,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -1341,9 +1342,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
@@ -1351,9 +1352,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
@@ -1361,9 +1362,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
@@ -1371,9 +1372,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="30" t="s">
         <v>14</v>
       </c>
@@ -1381,195 +1382,194 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="36"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="36"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="36"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="36"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="36"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="27" t="s">
+    </row>
+    <row r="16" spans="1:4" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
+    </row>
+    <row r="17" spans="1:4" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="38"/>
+    </row>
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="28" t="s">
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="C20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29" t="s">
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="34" t="s">
+      <c r="D21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="29" t="s">
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="34" t="s">
+      <c r="D22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1587,19 +1587,19 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="45.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="45.375" style="13"/>
+    <col min="8" max="16384" width="45.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1641,17 +1641,17 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1671,55 +1671,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
@@ -1741,1007 +1741,1007 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261"/>
     </row>
   </sheetData>
@@ -2763,33 +2763,33 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="C4" s="10"/>
     </row>
@@ -2811,26 +2811,26 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.875" style="10"/>
+    <col min="4" max="16384" width="15.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{D4B68E45-EF3F-0A42-9068-063F7FE5AC8C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,6 +2838,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C4F494C08EDD94886DA399C00040A88" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb100785c82351fc76f753ea0bc4f567">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20e77d52-3554-4b01-bb3d-04a950c582be" xmlns:ns3="15df82cb-1298-4b58-9691-2a7c21fe0bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83d26c6a6a39b6d3f58bc6a5b9f07c5b" ns2:_="" ns3:_="">
     <xsd:import namespace="20e77d52-3554-4b01-bb3d-04a950c582be"/>
@@ -3054,36 +3069,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE44AAC-9192-4D6B-9EF0-2C07FA50C1A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B064398-A2C5-4EDD-938E-E1124410CBBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="20e77d52-3554-4b01-bb3d-04a950c582be"/>
-    <ds:schemaRef ds:uri="15df82cb-1298-4b58-9691-2a7c21fe0bd6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3106,9 +3095,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B064398-A2C5-4EDD-938E-E1124410CBBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE44AAC-9192-4D6B-9EF0-2C07FA50C1A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20e77d52-3554-4b01-bb3d-04a950c582be"/>
+    <ds:schemaRef ds:uri="15df82cb-1298-4b58-9691-2a7c21fe0bd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>